--- a/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FA7841-EB25-44A8-B7A9-9ACF331DBF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E714AA-411B-4037-BD44-87C04E590AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF1A2474-4532-48D8-A06B-C97A9985179F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFC85680-FD6C-4442-A53D-67AC43AB9FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="325">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -92,28 +92,28 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>Bastante bien</t>
@@ -122,28 +122,28 @@
     <t>69,88%</t>
   </si>
   <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>Muy bien</t>
@@ -152,28 +152,28 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,106 +185,106 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>63,58%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>64,18%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -293,526 +293,520 @@
     <t>6,07%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>13,13%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>44,87%</t>
   </si>
   <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>43,58%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -821,109 +815,94 @@
     <t>0,91%</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -932,103 +911,103 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,68%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>27,01%</t>
+    <t>23,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B1113A-8800-458E-934C-3D14DE39B5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2064B7-CBA1-4C21-9F38-1DA8073C9DB5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2473,10 +2452,10 @@
         <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2470,13 @@
         <v>85625</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -2506,13 +2485,13 @@
         <v>70858</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2521,13 +2500,13 @@
         <v>156484</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2562,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2574,13 @@
         <v>670</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2616,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2625,13 +2604,13 @@
         <v>670</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,7 +2625,7 @@
         <v>4422</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>163</v>
@@ -2888,7 +2867,7 @@
         <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2882,13 @@
         <v>31356</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -2918,13 +2897,13 @@
         <v>19255</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -2933,13 +2912,13 @@
         <v>50611</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2933,13 @@
         <v>80688</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -2969,13 +2948,13 @@
         <v>47753</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>156</v>
@@ -2984,13 +2963,13 @@
         <v>128441</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2984,13 @@
         <v>18889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -3020,13 +2999,13 @@
         <v>21855</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>53</v>
@@ -3035,13 +3014,13 @@
         <v>40744</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3076,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3088,13 @@
         <v>10627</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -3124,13 +3103,13 @@
         <v>5528</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -3139,13 +3118,13 @@
         <v>16155</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3139,13 @@
         <v>38548</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -3175,13 +3154,13 @@
         <v>32219</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
@@ -3190,13 +3169,13 @@
         <v>70767</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3190,13 @@
         <v>137435</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>200</v>
@@ -3226,13 +3205,13 @@
         <v>146529</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>330</v>
@@ -3241,13 +3220,13 @@
         <v>283964</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3241,13 @@
         <v>150428</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -3277,13 +3256,13 @@
         <v>142315</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>333</v>
@@ -3292,13 +3271,13 @@
         <v>292743</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3333,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3366,13 +3345,13 @@
         <v>4596</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3381,13 +3360,13 @@
         <v>9425</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -3396,13 +3375,13 @@
         <v>14021</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3396,13 @@
         <v>27303</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H40" s="7">
         <v>43</v>
@@ -3432,13 +3411,13 @@
         <v>36025</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M40" s="7">
         <v>65</v>
@@ -3447,13 +3426,13 @@
         <v>63328</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3447,13 @@
         <v>428739</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H41" s="7">
         <v>303</v>
@@ -3483,13 +3462,13 @@
         <v>260292</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M41" s="7">
         <v>626</v>
@@ -3498,13 +3477,13 @@
         <v>689032</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3498,13 @@
         <v>45453</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H42" s="7">
         <v>27</v>
@@ -3534,13 +3513,13 @@
         <v>22315</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M42" s="7">
         <v>63</v>
@@ -3549,13 +3528,13 @@
         <v>67768</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3602,13 @@
         <v>48378</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -3638,13 +3617,13 @@
         <v>41045</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
         <v>92</v>
@@ -3653,13 +3632,13 @@
         <v>89423</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3653,13 @@
         <v>217706</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H45" s="7">
         <v>233</v>
@@ -3689,13 +3668,13 @@
         <v>182969</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M45" s="7">
         <v>420</v>
@@ -3704,13 +3683,13 @@
         <v>400675</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3704,13 @@
         <v>1123472</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H46" s="7">
         <v>1234</v>
@@ -3740,13 +3719,13 @@
         <v>890705</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M46" s="7">
         <v>2260</v>
@@ -3755,13 +3734,13 @@
         <v>2014178</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3755,13 @@
         <v>445260</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H47" s="7">
         <v>521</v>
@@ -3791,13 +3770,13 @@
         <v>387786</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M47" s="7">
         <v>937</v>
@@ -3806,13 +3785,13 @@
         <v>833046</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3847,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E714AA-411B-4037-BD44-87C04E590AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BBB27B-F438-472C-BAA9-4666CBEB44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFC85680-FD6C-4442-A53D-67AC43AB9FA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BED71024-EEF0-4C65-8E7A-BE33DF3D8503}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2064B7-CBA1-4C21-9F38-1DA8073C9DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CEA97-C6C1-4FA8-AFEE-1E78D8C2FE11}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BBB27B-F438-472C-BAA9-4666CBEB44FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F10518-7161-42F9-905D-AA0FF974BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BED71024-EEF0-4C65-8E7A-BE33DF3D8503}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34AC67F2-74E1-4E93-B198-3960DEDDCED6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -92,922 +92,943 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Bastante bien</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>Muy bien</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>Bastante bien</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>Muy bien</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>58,41%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>62,86%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>23,09%</t>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1422,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CEA97-C6C1-4FA8-AFEE-1E78D8C2FE11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CAAF2E-7433-4287-8514-8B761B3E4AFF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2452,10 +2473,10 @@
         <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2491,13 @@
         <v>85625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -2485,13 +2506,13 @@
         <v>70858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2500,13 +2521,13 @@
         <v>156484</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2583,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2574,13 +2595,13 @@
         <v>670</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2595,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2604,13 +2625,13 @@
         <v>670</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,7 +2646,7 @@
         <v>4422</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>163</v>
@@ -2867,7 +2888,7 @@
         <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2903,13 @@
         <v>31356</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -2897,13 +2918,13 @@
         <v>19255</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -2912,13 +2933,13 @@
         <v>50611</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2954,13 @@
         <v>80688</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -2948,13 +2969,13 @@
         <v>47753</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>156</v>
@@ -2963,13 +2984,13 @@
         <v>128441</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +3005,13 @@
         <v>18889</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -2999,13 +3020,13 @@
         <v>21855</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>53</v>
@@ -3014,13 +3035,13 @@
         <v>40744</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3097,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3088,13 +3109,13 @@
         <v>10627</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -3103,13 +3124,13 @@
         <v>5528</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -3118,13 +3139,13 @@
         <v>16155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3160,13 @@
         <v>38548</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -3154,13 +3175,13 @@
         <v>32219</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
@@ -3169,13 +3190,13 @@
         <v>70767</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3211,13 @@
         <v>137435</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>200</v>
@@ -3205,13 +3226,13 @@
         <v>146529</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>330</v>
@@ -3220,13 +3241,13 @@
         <v>283964</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3262,13 @@
         <v>150428</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -3256,13 +3277,13 @@
         <v>142315</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>333</v>
@@ -3271,13 +3292,13 @@
         <v>292743</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3354,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3366,13 @@
         <v>4596</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3360,13 +3381,13 @@
         <v>9425</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -3375,13 +3396,13 @@
         <v>14021</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3417,13 @@
         <v>27303</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>43</v>
@@ -3411,13 +3432,13 @@
         <v>36025</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>65</v>
@@ -3426,13 +3447,13 @@
         <v>63328</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3468,13 @@
         <v>428739</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>303</v>
@@ -3462,13 +3483,13 @@
         <v>260292</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>626</v>
@@ -3477,13 +3498,13 @@
         <v>689032</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3519,13 @@
         <v>45453</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>27</v>
@@ -3513,13 +3534,13 @@
         <v>22315</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>63</v>
@@ -3528,13 +3549,13 @@
         <v>67768</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3623,13 @@
         <v>48378</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -3617,13 +3638,13 @@
         <v>41045</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>92</v>
@@ -3632,13 +3653,13 @@
         <v>89423</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3674,13 @@
         <v>217706</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>233</v>
@@ -3668,13 +3689,13 @@
         <v>182969</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>420</v>
@@ -3683,13 +3704,13 @@
         <v>400675</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3725,13 @@
         <v>1123472</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>1234</v>
@@ -3719,13 +3740,13 @@
         <v>890705</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>2260</v>
@@ -3734,13 +3755,13 @@
         <v>2014178</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3776,13 @@
         <v>445260</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>521</v>
@@ -3770,13 +3791,13 @@
         <v>387786</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>937</v>
@@ -3785,13 +3806,13 @@
         <v>833046</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3868,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F10518-7161-42F9-905D-AA0FF974BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2481A9-BFB8-4D49-9C69-CD239E74740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34AC67F2-74E1-4E93-B198-3960DEDDCED6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1756403B-3BEC-4298-9245-85D7DB285964}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="330">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -89,946 +89,940 @@
     <t>No muy bien</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>Bastante bien</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>Muy bien</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>Bastante bien</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>Muy bien</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>29,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CAAF2E-7433-4287-8514-8B761B3E4AFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABEC0F2-1FC9-4703-8E6F-34B2A1F403F5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,7 +1609,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>6021</v>
+        <v>7348</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1630,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>5918</v>
+        <v>6422</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1645,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>11939</v>
+        <v>13770</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1666,7 +1660,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="7">
-        <v>113882</v>
+        <v>136172</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1681,7 +1675,7 @@
         <v>184</v>
       </c>
       <c r="I6" s="7">
-        <v>92745</v>
+        <v>98394</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1696,7 +1690,7 @@
         <v>323</v>
       </c>
       <c r="N6" s="7">
-        <v>206626</v>
+        <v>234566</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1717,7 +1711,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>43056</v>
+        <v>50681</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1732,7 +1726,7 @@
         <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>36228</v>
+        <v>39516</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1747,7 +1741,7 @@
         <v>115</v>
       </c>
       <c r="N7" s="7">
-        <v>79283</v>
+        <v>90197</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1768,7 +1762,7 @@
         <v>202</v>
       </c>
       <c r="D8" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -1783,7 +1777,7 @@
         <v>257</v>
       </c>
       <c r="I8" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
@@ -1798,7 +1792,7 @@
         <v>459</v>
       </c>
       <c r="N8" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1821,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1440</v>
+        <v>1456</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>48</v>
@@ -1836,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>5832</v>
+        <v>5400</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -1851,7 +1845,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>7272</v>
+        <v>6856</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>53</v>
@@ -1872,7 +1866,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>55657</v>
+        <v>57579</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -1887,7 +1881,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>36010</v>
+        <v>33746</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>59</v>
@@ -1902,7 +1896,7 @@
         <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>91667</v>
+        <v>91325</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>62</v>
@@ -1923,7 +1917,7 @@
         <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>152726</v>
+        <v>150244</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>65</v>
@@ -1938,7 +1932,7 @@
         <v>140</v>
       </c>
       <c r="I11" s="7">
-        <v>116213</v>
+        <v>108488</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>68</v>
@@ -1953,7 +1947,7 @@
         <v>252</v>
       </c>
       <c r="N11" s="7">
-        <v>268939</v>
+        <v>258731</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>71</v>
@@ -1974,7 +1968,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>30376</v>
+        <v>30331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>74</v>
@@ -1989,7 +1983,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>20803</v>
+        <v>19459</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>77</v>
@@ -2004,7 +1998,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>51179</v>
+        <v>49790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>80</v>
@@ -2025,7 +2019,7 @@
         <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>240200</v>
+        <v>239610</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -2040,7 +2034,7 @@
         <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>178858</v>
+        <v>167092</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -2055,7 +2049,7 @@
         <v>383</v>
       </c>
       <c r="N13" s="7">
-        <v>419058</v>
+        <v>406702</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -2078,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>9170</v>
+        <v>9039</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>84</v>
@@ -2093,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>7168</v>
+        <v>6722</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>87</v>
@@ -2108,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>16338</v>
+        <v>15761</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>90</v>
@@ -2129,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>34756</v>
+        <v>34010</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>93</v>
@@ -2144,7 +2138,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="7">
-        <v>26427</v>
+        <v>24858</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>96</v>
@@ -2159,7 +2153,7 @@
         <v>68</v>
       </c>
       <c r="N15" s="7">
-        <v>61183</v>
+        <v>58867</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>99</v>
@@ -2180,7 +2174,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>66863</v>
+        <v>65832</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>102</v>
@@ -2195,7 +2189,7 @@
         <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>57291</v>
+        <v>53985</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>105</v>
@@ -2210,7 +2204,7 @@
         <v>146</v>
       </c>
       <c r="N16" s="7">
-        <v>124153</v>
+        <v>119816</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>108</v>
@@ -2231,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>40374</v>
+        <v>39801</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>111</v>
@@ -2246,7 +2240,7 @@
         <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>37508</v>
+        <v>35297</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>114</v>
@@ -2261,7 +2255,7 @@
         <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>77882</v>
+        <v>75098</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>117</v>
@@ -2282,7 +2276,7 @@
         <v>152</v>
       </c>
       <c r="D18" s="7">
-        <v>151163</v>
+        <v>148682</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -2297,7 +2291,7 @@
         <v>169</v>
       </c>
       <c r="I18" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -2312,7 +2306,7 @@
         <v>321</v>
       </c>
       <c r="N18" s="7">
-        <v>279556</v>
+        <v>269543</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -2335,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>14139</v>
+        <v>13341</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>121</v>
@@ -2350,7 +2344,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>9010</v>
+        <v>8244</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>124</v>
@@ -2365,7 +2359,7 @@
         <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>23149</v>
+        <v>21585</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>127</v>
@@ -2386,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>19643</v>
+        <v>18460</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>130</v>
@@ -2401,7 +2395,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>23678</v>
+        <v>21570</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>133</v>
@@ -2416,7 +2410,7 @@
         <v>36</v>
       </c>
       <c r="N20" s="7">
-        <v>43320</v>
+        <v>40030</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>136</v>
@@ -2437,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="7">
-        <v>55020</v>
+        <v>52913</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>139</v>
@@ -2452,7 +2446,7 @@
         <v>90</v>
       </c>
       <c r="I21" s="7">
-        <v>90945</v>
+        <v>106839</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>142</v>
@@ -2467,7 +2461,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="7">
-        <v>145964</v>
+        <v>159751</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>145</v>
@@ -2488,7 +2482,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>85625</v>
+        <v>83783</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>148</v>
@@ -2503,7 +2497,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="7">
-        <v>70858</v>
+        <v>121121</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>151</v>
@@ -2518,7 +2512,7 @@
         <v>136</v>
       </c>
       <c r="N22" s="7">
-        <v>156484</v>
+        <v>204904</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>154</v>
@@ -2539,7 +2533,7 @@
         <v>126</v>
       </c>
       <c r="D23" s="7">
-        <v>174427</v>
+        <v>168497</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>46</v>
@@ -2554,7 +2548,7 @@
         <v>201</v>
       </c>
       <c r="I23" s="7">
-        <v>194490</v>
+        <v>257774</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>46</v>
@@ -2569,7 +2563,7 @@
         <v>327</v>
       </c>
       <c r="N23" s="7">
-        <v>368917</v>
+        <v>426270</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>46</v>
@@ -2592,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>158</v>
@@ -2622,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>670</v>
+        <v>621</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>161</v>
@@ -2643,46 +2637,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>4422</v>
+        <v>4043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>3438</v>
+        <v>3045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>7860</v>
+        <v>7088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,46 +2688,46 @@
         <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>88120</v>
+        <v>80701</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>172</v>
       </c>
       <c r="I26" s="7">
-        <v>78938</v>
+        <v>72135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
       </c>
       <c r="N26" s="7">
-        <v>167059</v>
+        <v>152836</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,46 +2739,46 @@
         <v>39</v>
       </c>
       <c r="D27" s="7">
-        <v>31058</v>
+        <v>28191</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>61</v>
       </c>
       <c r="I27" s="7">
-        <v>35905</v>
+        <v>31937</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
       </c>
       <c r="N27" s="7">
-        <v>66963</v>
+        <v>60128</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2790,7 @@
         <v>170</v>
       </c>
       <c r="D28" s="7">
-        <v>124271</v>
+        <v>113556</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>46</v>
@@ -2811,7 +2805,7 @@
         <v>240</v>
       </c>
       <c r="I28" s="7">
-        <v>118281</v>
+        <v>107117</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>46</v>
@@ -2826,7 +2820,7 @@
         <v>410</v>
       </c>
       <c r="N28" s="7">
-        <v>242552</v>
+        <v>220673</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>46</v>
@@ -2840,7 +2834,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2849,46 +2843,46 @@
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>7735</v>
+        <v>7406</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>4083</v>
+        <v>3799</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
       </c>
       <c r="N29" s="7">
-        <v>11817</v>
+        <v>11205</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,46 +2894,46 @@
         <v>36</v>
       </c>
       <c r="D30" s="7">
-        <v>31356</v>
+        <v>30731</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
       </c>
       <c r="I30" s="7">
-        <v>19255</v>
+        <v>17841</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
       </c>
       <c r="N30" s="7">
-        <v>50611</v>
+        <v>48572</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,46 +2945,46 @@
         <v>89</v>
       </c>
       <c r="D31" s="7">
-        <v>80688</v>
+        <v>78497</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
       </c>
       <c r="I31" s="7">
-        <v>47753</v>
+        <v>44520</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>156</v>
       </c>
       <c r="N31" s="7">
-        <v>128441</v>
+        <v>123018</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,46 +2996,46 @@
         <v>21</v>
       </c>
       <c r="D32" s="7">
-        <v>18889</v>
+        <v>18427</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
       </c>
       <c r="I32" s="7">
-        <v>21855</v>
+        <v>20242</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>53</v>
       </c>
       <c r="N32" s="7">
-        <v>40744</v>
+        <v>38669</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,7 +3047,7 @@
         <v>155</v>
       </c>
       <c r="D33" s="7">
-        <v>138669</v>
+        <v>135061</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>46</v>
@@ -3068,7 +3062,7 @@
         <v>129</v>
       </c>
       <c r="I33" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>46</v>
@@ -3083,7 +3077,7 @@
         <v>284</v>
       </c>
       <c r="N33" s="7">
-        <v>231614</v>
+        <v>221463</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>46</v>
@@ -3097,7 +3091,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,46 +3100,46 @@
         <v>11</v>
       </c>
       <c r="D34" s="7">
-        <v>10627</v>
+        <v>10430</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
       </c>
       <c r="I34" s="7">
-        <v>5528</v>
+        <v>5219</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
       </c>
       <c r="N34" s="7">
-        <v>16155</v>
+        <v>15650</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,46 +3151,46 @@
         <v>33</v>
       </c>
       <c r="D35" s="7">
-        <v>38548</v>
+        <v>37868</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
       </c>
       <c r="I35" s="7">
-        <v>32219</v>
+        <v>30294</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>81</v>
       </c>
       <c r="N35" s="7">
-        <v>70767</v>
+        <v>68162</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,46 +3202,46 @@
         <v>130</v>
       </c>
       <c r="D36" s="7">
-        <v>137435</v>
+        <v>139947</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>200</v>
       </c>
       <c r="I36" s="7">
-        <v>146529</v>
+        <v>138369</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>330</v>
       </c>
       <c r="N36" s="7">
-        <v>283964</v>
+        <v>278315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,46 +3253,46 @@
         <v>141</v>
       </c>
       <c r="D37" s="7">
-        <v>150428</v>
+        <v>147240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
       </c>
       <c r="I37" s="7">
-        <v>142315</v>
+        <v>132488</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>333</v>
       </c>
       <c r="N37" s="7">
-        <v>292743</v>
+        <v>279728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,7 +3304,7 @@
         <v>315</v>
       </c>
       <c r="D38" s="7">
-        <v>337037</v>
+        <v>335486</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>46</v>
@@ -3325,7 +3319,7 @@
         <v>449</v>
       </c>
       <c r="I38" s="7">
-        <v>326591</v>
+        <v>306370</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>46</v>
@@ -3340,7 +3334,7 @@
         <v>764</v>
       </c>
       <c r="N38" s="7">
-        <v>663629</v>
+        <v>641855</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>46</v>
@@ -3354,7 +3348,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,22 +3357,22 @@
         <v>4</v>
       </c>
       <c r="D39" s="7">
-        <v>4596</v>
+        <v>3963</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>9425</v>
+        <v>7125</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>263</v>
@@ -3393,7 +3387,7 @@
         <v>7</v>
       </c>
       <c r="N39" s="7">
-        <v>14021</v>
+        <v>11088</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>266</v>
@@ -3414,46 +3408,46 @@
         <v>22</v>
       </c>
       <c r="D40" s="7">
-        <v>27303</v>
+        <v>22836</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>43</v>
       </c>
       <c r="I40" s="7">
-        <v>36025</v>
+        <v>30007</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>65</v>
       </c>
       <c r="N40" s="7">
-        <v>63328</v>
+        <v>52843</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,46 +3459,46 @@
         <v>323</v>
       </c>
       <c r="D41" s="7">
-        <v>428739</v>
+        <v>562936</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>303</v>
       </c>
       <c r="I41" s="7">
-        <v>260292</v>
+        <v>215991</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>626</v>
       </c>
       <c r="N41" s="7">
-        <v>689032</v>
+        <v>778928</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,46 +3510,46 @@
         <v>36</v>
       </c>
       <c r="D42" s="7">
-        <v>45453</v>
+        <v>38590</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>27</v>
       </c>
       <c r="I42" s="7">
-        <v>22315</v>
+        <v>18888</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>63</v>
       </c>
       <c r="N42" s="7">
-        <v>67768</v>
+        <v>57477</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3561,7 @@
         <v>385</v>
       </c>
       <c r="D43" s="7">
-        <v>506091</v>
+        <v>628325</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>46</v>
@@ -3582,7 +3576,7 @@
         <v>376</v>
       </c>
       <c r="I43" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>46</v>
@@ -3597,7 +3591,7 @@
         <v>761</v>
       </c>
       <c r="N43" s="7">
-        <v>834149</v>
+        <v>900336</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>46</v>
@@ -3620,46 +3614,46 @@
         <v>45</v>
       </c>
       <c r="D44" s="7">
-        <v>48378</v>
+        <v>46258</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
       </c>
       <c r="I44" s="7">
-        <v>41045</v>
+        <v>36509</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>92</v>
       </c>
       <c r="N44" s="7">
-        <v>89423</v>
+        <v>82767</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,46 +3665,46 @@
         <v>187</v>
       </c>
       <c r="D45" s="7">
-        <v>217706</v>
+        <v>212874</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>233</v>
       </c>
       <c r="I45" s="7">
-        <v>182969</v>
+        <v>167782</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>420</v>
       </c>
       <c r="N45" s="7">
-        <v>400675</v>
+        <v>380657</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,46 +3716,46 @@
         <v>1026</v>
       </c>
       <c r="D46" s="7">
-        <v>1123472</v>
+        <v>1267240</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>1234</v>
       </c>
       <c r="I46" s="7">
-        <v>890705</v>
+        <v>838722</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="M46" s="7">
         <v>2260</v>
       </c>
       <c r="N46" s="7">
-        <v>2014178</v>
+        <v>2105962</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,46 +3767,46 @@
         <v>416</v>
       </c>
       <c r="D47" s="7">
-        <v>445260</v>
+        <v>437044</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>521</v>
       </c>
       <c r="I47" s="7">
-        <v>387786</v>
+        <v>418948</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>937</v>
       </c>
       <c r="N47" s="7">
-        <v>833046</v>
+        <v>855992</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3818,7 @@
         <v>1674</v>
       </c>
       <c r="D48" s="7">
-        <v>1834816</v>
+        <v>1963416</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>46</v>
@@ -3839,7 +3833,7 @@
         <v>2035</v>
       </c>
       <c r="I48" s="7">
-        <v>1502505</v>
+        <v>1461961</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>46</v>
@@ -3854,7 +3848,7 @@
         <v>3709</v>
       </c>
       <c r="N48" s="7">
-        <v>3337322</v>
+        <v>3425377</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>46</v>
@@ -3868,7 +3862,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
